--- a/result001.xlsx
+++ b/result001.xlsx
@@ -607,7 +607,7 @@
           <t>M54</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>合口バリ</t>
         </is>
